--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5121748-44E4-41CD-B161-0D38944E5AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896BFC8-9777-42F6-BD09-BE1DF5BC99F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="3528" windowWidth="20868" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1656" yWindow="4932" windowWidth="20868" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,14 +199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +491,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,7 +513,7 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
@@ -530,7 +530,7 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
@@ -547,7 +547,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
@@ -555,7 +555,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -564,7 +564,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4">
@@ -572,14 +572,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5">
@@ -587,29 +587,29 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7">
@@ -617,14 +617,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E8">

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896BFC8-9777-42F6-BD09-BE1DF5BC99F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59D30C-FD23-4319-9DA7-3003A0C59C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="4932" windowWidth="20868" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1575" windowWidth="19710" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +73,6 @@
   </si>
   <si>
     <t>类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景0，背景1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,18 +115,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>透光墙</t>
-  </si>
-  <si>
-    <t>透光墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不透光墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色0，背景色1，背景色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头色0，木头色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石色0，岩石色1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,20 +504,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -548,88 +562,183 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C3698-0808-4BBA-A00B-EF4DED3861C2}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59D30C-FD23-4319-9DA7-3003A0C59C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB525D93-F0D3-44DC-982E-C05A99C3310C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1575" windowWidth="19710" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2145" windowWidth="24270" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,13 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流体密度为0代表不流动
-绝对值越大沉的越深
-为正代表液体
-为负代表气体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +136,67 @@
   </si>
   <si>
     <t>岩石色0，岩石色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluidType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">流体类型：
+1代表液体
+2代表气体
+3代表固体
+n的值越大沉的越深
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂砾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂砾色0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,9 +568,10 @@
     <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,10 +585,13 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -548,10 +605,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -565,42 +625,39 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -609,136 +666,100 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C3698-0808-4BBA-A00B-EF4DED3861C2}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB525D93-F0D3-44DC-982E-C05A99C3310C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B95082-E251-456C-AE77-C44F53FFA95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3705" yWindow="2145" windowWidth="24270" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fluidType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>砂砾色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -605,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -625,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -735,7 +735,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E12">
         <v>3</v>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B95082-E251-456C-AE77-C44F53FFA95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB9B0F6-5FC7-45AA-80AC-0C37C1EFBA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2145" windowWidth="24270" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,23 +567,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -611,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -631,7 +643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -645,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -657,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -669,7 +681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -681,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -693,7 +705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -710,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -727,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -744,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -759,6 +771,17 @@
       </c>
       <c r="F12">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB9B0F6-5FC7-45AA-80AC-0C37C1EFBA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5DB25-6E11-4015-99F1-6C4F13C87A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2328" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白玉色0，白玉色1，白玉色2，黑玉色0，黑玉色1，黑玉色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,6 +796,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A8"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5DB25-6E11-4015-99F1-6C4F13C87A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89A33E-27BE-4D65-AB43-BD894BD81B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2328" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3528" yWindow="840" windowWidth="25692" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光源0，光源1，光源2，光源3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fluidDensity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +136,6 @@
   </si>
   <si>
     <t>水色0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,18 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试色0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +197,46 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰色0，火焰色1，火焰色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源0，光源1，光源2，光源3，光源4，光源5，光源6，光源7，光源8，光源9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚硬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnOdds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -298,6 +314,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -590,12 +614,14 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,17 +631,26 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -625,17 +660,26 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -645,166 +689,237 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89A33E-27BE-4D65-AB43-BD894BD81B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609A6E1-9F20-4A10-B1B8-828C93F5C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="840" windowWidth="25692" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="3048" windowWidth="25692" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -167,76 +167,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>砂砾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂砾色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白玉色0，白玉色1，白玉色2，黑玉色0，黑玉色1，黑玉色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰色0，火焰色1，火焰色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源0，光源1，光源2，光源3，光源4，光源5，光源6，光源7，光源8，光源9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚硬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnOdds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">流体类型：
 1代表液体
 2代表气体
 3代表固体
 n的值越大沉的越深
+耐久度不能为0
+耐久度为-1代表无限耐久
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砂砾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砂砾色0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白玉色0，白玉色1，白玉色2，黑玉色0，黑玉色1，黑玉色2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰色0，火焰色1，火焰色2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光源0，光源1，光源2，光源3，光源4，光源5，光源6，光源7，光源8，光源9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚硬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hardness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>burnOdds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -314,13 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,10 +598,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,8 +609,8 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" customWidth="1"/>
@@ -631,11 +626,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -647,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,11 +655,11 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -676,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,11 +684,11 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -705,12 +700,12 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -718,11 +713,11 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -734,11 +729,11 @@
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -748,13 +743,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -768,11 +763,11 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
@@ -786,11 +781,11 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>23</v>
@@ -800,17 +795,18 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9">
@@ -821,17 +817,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10">
@@ -842,20 +839,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -865,20 +863,21 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -888,43 +887,55 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="D13" s="1"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A4:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609A6E1-9F20-4A10-B1B8-828C93F5C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C54B65-41C8-4A52-8094-7A7A9C0F5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="3048" windowWidth="25692" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4752" yWindow="2136" windowWidth="25692" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,12 +233,20 @@
   <si>
     <t xml:space="preserve">流体类型：
 1代表液体
-2代表气体
+2代表气体:正向上,负向下
 3代表固体
 n的值越大沉的越深
 耐久度不能为0
 耐久度为-1代表无限耐久
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蒸气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蒸气色0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -819,10 +827,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -832,43 +840,41 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -883,49 +889,70 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15">
         <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -933,9 +960,12 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A4:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C54B65-41C8-4A52-8094-7A7A9C0F5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B488A2D-3CC4-48A0-9D5D-8CA9DA450E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4752" yWindow="2136" windowWidth="25692" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="816" yWindow="1032" windowWidth="27984" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火焰色0，火焰色1，火焰色2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光源0，光源1，光源2，光源3，光源4，光源5，光源6，光源7，光源8，光源9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +224,34 @@
   </si>
   <si>
     <t>burnOdds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蒸气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蒸气色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 毒液色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnTimeRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧时间范围ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰色0，火焰色1，火焰色2，火焰色3，火焰色4，火焰色5，火焰色6，火焰色7，火焰色8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,17 +260,18 @@
 2代表气体:正向上,负向下
 3代表固体
 n的值越大沉的越深
-耐久度不能为0
-耐久度为-1代表无限耐久
+坚硬度为-1代表无法破坏耐久度
+耐久度为0代表最大耐久
+2^32
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水蒸气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水蒸气色0</t>
+    <t>Vector2Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -325,6 +350,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,13 +632,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
@@ -622,9 +651,10 @@
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -650,10 +680,13 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -664,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -679,10 +712,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -693,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -708,12 +744,15 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -722,14 +761,11 @@
         <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
         <v>-1</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -744,14 +780,20 @@
         <v>10</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -763,7 +805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -781,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -799,10 +841,13 @@
         <v>23</v>
       </c>
       <c r="I8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -811,9 +856,6 @@
         <v>27</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9">
         <v>-1</v>
       </c>
       <c r="F9" s="4"/>
@@ -824,18 +866,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10">
         <v>-1</v>
       </c>
       <c r="F10" s="4"/>
@@ -846,18 +885,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11" s="4"/>
@@ -865,40 +901,41 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -913,39 +950,45 @@
         <v>3</v>
       </c>
       <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -953,19 +996,37 @@
       <c r="E16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="A4:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B488A2D-3CC4-48A0-9D5D-8CA9DA450E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FE5CC-F2C8-42D3-96C8-94F186917917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="1032" windowWidth="27984" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="4545" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,10 +347,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -634,27 +634,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,11 +682,11 @@
       <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -714,11 +714,11 @@
       <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -746,12 +746,12 @@
       <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -765,8 +765,8 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,15 +780,9 @@
         <v>10</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -805,8 +799,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -823,8 +817,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -843,12 +837,12 @@
       <c r="I8">
         <v>10</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -866,8 +860,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -885,8 +879,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
@@ -907,8 +901,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -929,8 +923,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -953,8 +947,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
@@ -977,13 +971,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="D15" s="1"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1000,8 +994,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1015,14 +1009,14 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FE5CC-F2C8-42D3-96C8-94F186917917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10BDB0-DD95-458F-96CE-F1C0960CFDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="4545" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="4185" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,7 +255,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">流体类型：
+    <t>Vector2Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流体类型：
 1代表液体
 2代表气体:正向上,负向下
 3代表固体
@@ -263,15 +267,79 @@
 坚硬度为-1代表无法破坏耐久度
 耐久度为0代表最大耐久
 2^32
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector2Int</t>
+每个像素类型至少有一个可用颜色，否则报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明弹色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,1250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3000,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵花瓣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 花朵茎秆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素，花朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵花瓣色0，花朵花瓣色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵茎秆色0， 花朵茎秆色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[HashSet]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,29 +700,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,31 +729,34 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -694,31 +764,34 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -726,301 +799,393 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="J8">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
         <v>-1</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11">
+      <c r="G11" s="4"/>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
       <c r="I11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1">
         <v>-1</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12">
-        <v>1</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F19">
         <v>-2000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A4:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10BDB0-DD95-458F-96CE-F1C0960CFDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB7C207-6CC4-4B5E-ACA9-30D9535BACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="4185" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9285" yWindow="4590" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -331,15 +331,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花朵花瓣色0，花朵花瓣色1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花朵茎秆色0， 花朵茎秆色1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string[HashSet]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵花瓣色0，花朵花瓣色1，花朵花瓣_发光_色0，花朵花瓣_发光_色1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -911,7 +911,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB7C207-6CC4-4B5E-ACA9-30D9535BACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDD80D-04FD-430A-8B9C-D5EBE0B4F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="4590" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -887,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -914,7 +914,7 @@
         <v>74</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>76</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -964,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1097,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F16">
         <v>10</v>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDD80D-04FD-430A-8B9C-D5EBE0B4F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE9B79-5B96-4A9F-B068-9BD741C0DEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="4995" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,22 @@
   </si>
   <si>
     <t>花朵花瓣色0，花朵花瓣色1，花朵花瓣_发光_色0，花朵花瓣_发光_色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥土色0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,11 +716,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,6 +855,9 @@
       <c r="E4" s="1">
         <v>-1</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -877,315 +896,353 @@
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>500</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="J8">
-        <v>25</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>68</v>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>69</v>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1">
+        <v>700</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="A4:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE9B79-5B96-4A9F-B068-9BD741C0DEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2352CF-F602-431B-BF6C-DDD8C58E8A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="4995" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,74 @@
   </si>
   <si>
     <t>泥土色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电水色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素，带电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素，导电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricityPixle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电水，带电水色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水，水色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电与导电像素相互转换，需要输入相互转换的类型与颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电空气色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气，空气色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带电空气，带电空气色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰色0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,12 +462,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -435,12 +509,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9BC2E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -716,11 +806,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -735,9 +825,10 @@
     <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
     <col min="11" max="11" width="15.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +862,11 @@
       <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -806,8 +900,11 @@
       <c r="K2" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -841,8 +938,11 @@
       <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
@@ -859,390 +959,501 @@
         <v>0</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1">
-        <v>750</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1">
+        <v>750</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>500</v>
       </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>10</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14">
+      <c r="G17" s="11"/>
+      <c r="H17" s="10">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>6</v>
-      </c>
-      <c r="J16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1">
-        <v>200</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="10">
+        <v>10</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1">
-        <v>700</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="8">
+        <v>800</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="E19" s="1"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="1">
-        <v>200</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24">
-        <v>25</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1">
+        <v>700</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="J25">
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="J34">
         <v>20</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K34" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A4:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/PixelTypeInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Unity_P\PixelRayOcclusion\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2352CF-F602-431B-BF6C-DDD8C58E8A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E0952F-C382-4326-B508-B2050228206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="27990" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火焰色0，火焰色1，火焰色2，火焰色3，火焰色4，火焰色5，火焰色6，火焰色7，火焰色8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vector2Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花朵花瓣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +416,14 @@
   </si>
   <si>
     <t>冰色0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰色0，火焰色1，火焰色2，火焰色3，火焰色4，火焰色5，火焰色6，火焰色7，火焰色0_不发光，火焰色1_不发光，火焰色2_不发光，火焰色3_不发光，火焰色4_不发光，火焰色5_不发光，火焰色6_不发光，火焰色7_不发光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,9 +506,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -520,6 +517,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -809,8 +809,8 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -863,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -898,10 +898,10 @@
         <v>43</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -939,12 +939,12 @@
         <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>58</v>
+      <c r="A4" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -960,19 +960,19 @@
       </c>
       <c r="G4" s="4"/>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="1">
         <v>-1</v>
@@ -982,16 +982,16 @@
       </c>
       <c r="G5" s="4"/>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="12"/>
       <c r="E6" s="1"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,15 +1025,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -1049,15 +1049,15 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>750</v>
@@ -1066,16 +1066,16 @@
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1093,137 +1093,137 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10">
+      <c r="G15" s="10"/>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="I15" s="10">
-        <v>10</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="10" t="s">
-        <v>87</v>
+      <c r="I15" s="9">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="10" t="s">
-        <v>88</v>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10">
+      <c r="G17" s="10"/>
+      <c r="H17" s="9">
         <v>2</v>
       </c>
-      <c r="I17" s="10">
-        <v>10</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="10"/>
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>800</v>
       </c>
-      <c r="F18" s="10">
-        <v>10</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="10"/>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="12"/>
       <c r="E19" s="1"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>53</v>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1271,20 +1271,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="12"/>
       <c r="E22" s="1"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="12"/>
       <c r="E24" s="1"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1332,12 +1332,12 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="12"/>
       <c r="E27" s="1"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1355,33 +1355,33 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-2000</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1391,18 +1391,18 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="1">
         <v>200</v>
@@ -1411,25 +1411,25 @@
         <v>10</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J33">
         <v>25</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1">
         <v>50</v>
@@ -1442,14 +1442,14 @@
         <v>20</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
